--- a/ΕΝΗΜΕΡΩΤΙΚΑ_ΣΗΜΕΙΩΜΑΤΑ/2025-12/XLSX/ΕΝΗΜΕΡΩΤΙΚΟ_ΣΗΜΕΙΩΜΑ_ENERCO_ΕΝΕΡΓΕΙΑΚΗ_ΚΟΙΝΟΤΗΤΑ_ΠΕΡΙΟΡΙΣΜΕΝΗΣ_ΕΥΘΥΝΗΣ -_ΛΟΥΝΤΡΑ_2025-12.xlsx
+++ b/ΕΝΗΜΕΡΩΤΙΚΑ_ΣΗΜΕΙΩΜΑΤΑ/2025-12/XLSX/ΕΝΗΜΕΡΩΤΙΚΟ_ΣΗΜΕΙΩΜΑ_ENERCO_ΕΝΕΡΓΕΙΑΚΗ_ΚΟΙΝΟΤΗΤΑ_ΠΕΡΙΟΡΙΣΜΕΝΗΣ_ΕΥΘΥΝΗΣ -_ΛΟΥΝΤΡΑ_2025-12.xlsx
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="D34" s="26" t="n">
-        <v>0</v>
+        <v>3411.75</v>
       </c>
       <c r="E34" s="26" t="n">
-        <v>0</v>
+        <v>272.0336517</v>
       </c>
       <c r="F34" s="26" t="n">
-        <v>0</v>
+        <v>3.41</v>
       </c>
       <c r="G34" s="94" t="n">
-        <v>0</v>
+        <v>79.73</v>
       </c>
       <c r="H34" s="95" t="n"/>
     </row>
@@ -3435,13 +3435,13 @@
         <v>512.64</v>
       </c>
       <c r="E35" s="26" t="n">
-        <v>45.7855071</v>
+        <v>45.0394221</v>
       </c>
       <c r="F35" s="26" t="n">
         <v>0.51</v>
       </c>
       <c r="G35" s="94" t="n">
-        <v>89.31</v>
+        <v>87.86</v>
       </c>
       <c r="H35" s="95" t="n"/>
     </row>
@@ -3552,16 +3552,16 @@
         </is>
       </c>
       <c r="D41" s="31" t="n">
-        <v>62565.09</v>
+        <v>65976.84</v>
       </c>
       <c r="E41" s="31" t="n">
-        <v>5289.62</v>
+        <v>5560.9</v>
       </c>
       <c r="F41" s="31" t="n">
-        <v>62.56</v>
+        <v>65.97</v>
       </c>
       <c r="G41" s="96" t="n">
-        <v>84.55</v>
+        <v>84.29000000000001</v>
       </c>
       <c r="H41" s="95" t="n"/>
     </row>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="G45" s="85" t="n"/>
       <c r="H45" s="103" t="n">
-        <v>62.57</v>
+        <v>65.98</v>
       </c>
       <c r="I45" s="47" t="n"/>
     </row>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="C46" s="104" t="n"/>
       <c r="D46" s="105" t="n">
-        <v>62.56</v>
+        <v>65.97</v>
       </c>
       <c r="E46" s="43" t="n"/>
       <c r="F46" s="64" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="G46" s="85" t="n"/>
       <c r="H46" s="103" t="n">
-        <v>5289.62</v>
+        <v>5560.9</v>
       </c>
       <c r="I46" s="47" t="n"/>
     </row>
